--- a/sits/msit_hydrans.xlsx
+++ b/sits/msit_hydrans.xlsx
@@ -3171,7 +3171,7 @@
     <t>(431.22): 6</t>
   </si>
   <si>
-    <t>PF Tender Pallet; Scout; (EW=2); max two in service.</t>
+    <t>PF Tender Pallet; Scout; (EW=2); max 2 in service.</t>
   </si>
   <si>
     <t>PTP</t>
@@ -4515,12 +4515,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -4538,6 +4532,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -4582,23 +4582,23 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4628,7 +4628,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4637,11 +4637,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4649,7 +4649,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4657,11 +4657,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4677,15 +4677,15 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4693,19 +4693,15 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4721,43 +4717,35 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4765,11 +4753,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4781,11 +4769,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4797,11 +4785,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4817,23 +4805,23 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4841,27 +4829,23 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4869,24 +4853,20 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
@@ -4972,8 +4952,8 @@
   </sheetPr>
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A191" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G197" activeCellId="0" pane="topLeft" sqref="G197"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A127" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D145" activeCellId="0" pane="topLeft" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5224,10 +5204,10 @@
       <c r="H9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J9" s="18" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -5235,107 +5215,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="11">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="26" t="n">
+      <c r="J11" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="27" t="n">
+      <c r="B12" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="29" t="n">
+      <c r="J12" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5361,7 +5341,7 @@
       <c r="G13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -5413,14 +5393,14 @@
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="31" t="n">
+      <c r="B15" s="28" t="n">
         <v>110</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="29" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -5444,10 +5424,10 @@
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -5497,7 +5477,7 @@
       <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="11" t="s">
         <v>90</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -5526,72 +5506,72 @@
       <c r="K18" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="23" t="n">
         <v>43</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="J19" s="25" t="n">
         <v>2.5</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="20">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="27" t="n">
+      <c r="B20" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="29" t="n">
+      <c r="J20" s="27" t="n">
         <v>2.5</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5617,10 +5597,10 @@
       <c r="G21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="11" t="s">
         <v>109</v>
       </c>
       <c r="J21" s="8" t="n">
@@ -5702,13 +5682,13 @@
       <c r="G24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="11" t="s">
         <v>121</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="34" t="n">
+      <c r="J24" s="31" t="n">
         <v>2.25</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -5751,37 +5731,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="26">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="26" t="n">
+      <c r="J26" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="21" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5821,72 +5801,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="28">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="27" t="n">
+      <c r="B28" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="23" t="n">
+      <c r="E28" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="35" t="n">
+      <c r="J28" s="32" t="n">
         <v>2.25</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="29">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="27" t="n">
+      <c r="B29" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="23" t="n">
+      <c r="E29" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="35" t="n">
+      <c r="J29" s="32" t="n">
         <v>2.25</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5947,7 +5927,7 @@
       <c r="G31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="11" t="s">
         <v>156</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -5964,7 +5944,7 @@
       <c r="A32" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -5996,34 +5976,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="33">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="39" t="n">
+      <c r="J33" s="36" t="n">
         <v>2</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -6031,72 +6011,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="34">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="24" t="n">
+      <c r="B34" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="26" t="n">
+      <c r="J34" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="21" t="s">
         <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="35">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="23" t="n">
+      <c r="E35" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J35" s="29" t="n">
+      <c r="J35" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6104,7 +6084,7 @@
       <c r="A36" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="31" t="n">
+      <c r="B36" s="28" t="n">
         <v>113</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -6113,7 +6093,7 @@
       <c r="D36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="32" t="n">
+      <c r="E36" s="29" t="n">
         <v>8</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -6128,7 +6108,7 @@
       <c r="I36" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J36" s="42" t="n">
+      <c r="J36" s="39" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -6192,13 +6172,13 @@
       <c r="G38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="11" t="s">
         <v>190</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J38" s="34" t="n">
+      <c r="J38" s="31" t="n">
         <v>2.25</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -6206,72 +6186,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="39">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="27" t="n">
+      <c r="B39" s="26" t="n">
         <v>116</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="23" t="n">
+      <c r="E39" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="35" t="n">
+      <c r="J39" s="32" t="n">
         <v>2.25</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="19" t="s">
         <v>197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="40">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="24" t="n">
+      <c r="B40" s="23" t="n">
         <v>202</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="J40" s="26" t="n">
+      <c r="J40" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="21" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6338,7 +6318,7 @@
       <c r="I42" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J42" s="43" t="n">
+      <c r="J42" s="40" t="n">
         <v>3.25</v>
       </c>
       <c r="K42" s="11" t="s">
@@ -6382,7 +6362,7 @@
       <c r="G44" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="11" t="s">
         <v>220</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -6402,7 +6382,7 @@
       <c r="B45" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="30" t="s">
         <v>223</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -6417,7 +6397,7 @@
       <c r="G45" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="11" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -6452,7 +6432,7 @@
       <c r="G46" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="11" t="s">
         <v>230</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -6466,37 +6446,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="47">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B47" s="27" t="n">
+      <c r="B47" s="26" t="n">
         <v>93</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="23" t="n">
+      <c r="E47" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="J47" s="35" t="n">
+      <c r="J47" s="32" t="n">
         <v>1.75</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="19" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6536,72 +6516,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="49">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="27" t="n">
+      <c r="B49" s="26" t="n">
         <v>96</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="23" t="n">
+      <c r="E49" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="J49" s="29" t="n">
+      <c r="J49" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="19" t="s">
         <v>242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="50">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="27" t="n">
+      <c r="B50" s="26" t="n">
         <v>101</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="23" t="n">
+      <c r="E50" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H50" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="J50" s="35" t="n">
+      <c r="J50" s="32" t="n">
         <v>1.5</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="21" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6627,13 +6607,13 @@
       <c r="G51" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="11" t="s">
         <v>250</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J51" s="34" t="n">
+      <c r="J51" s="31" t="n">
         <v>1.75</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -6662,13 +6642,13 @@
       <c r="G52" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="11" t="s">
         <v>255</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J52" s="34" t="n">
+      <c r="J52" s="31" t="n">
         <v>1.5</v>
       </c>
       <c r="K52" s="11" t="s">
@@ -6682,7 +6662,7 @@
       <c r="B53" s="16" t="n">
         <v>97</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="41" t="s">
         <v>259</v>
       </c>
       <c r="D53" s="15" t="s">
@@ -6697,13 +6677,13 @@
       <c r="G53" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="11" t="s">
         <v>260</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="J53" s="19" t="n">
+      <c r="J53" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="K53" s="15" t="s">
@@ -6711,107 +6691,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="54">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="47" t="n">
+      <c r="E54" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="G54" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H54" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="J54" s="48" t="n">
+      <c r="J54" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="19" t="s">
         <v>267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="55">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="49" t="n">
+      <c r="B55" s="46" t="n">
         <v>100</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="47" t="n">
+      <c r="E55" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="J55" s="48" t="n">
+      <c r="J55" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="K55" s="45" t="s">
+      <c r="K55" s="42" t="s">
         <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="56">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="49" t="n">
+      <c r="B56" s="46" t="n">
         <v>102</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="47" t="n">
+      <c r="E56" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="J56" s="50" t="n">
+      <c r="J56" s="47" t="n">
         <v>1.5</v>
       </c>
-      <c r="K56" s="45" t="s">
+      <c r="K56" s="42" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6822,7 +6802,7 @@
       <c r="B57" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="48" t="s">
         <v>279</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -6837,7 +6817,7 @@
       <c r="G57" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="11" t="s">
         <v>280</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -6857,7 +6837,7 @@
       <c r="B58" s="16" t="n">
         <v>99</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="49" t="s">
         <v>284</v>
       </c>
       <c r="D58" s="15" t="s">
@@ -6872,13 +6852,13 @@
       <c r="G58" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="11" t="s">
         <v>285</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J58" s="53" t="n">
+      <c r="J58" s="50" t="n">
         <v>1.5</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -6886,54 +6866,54 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="59">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="27" t="n">
+      <c r="B59" s="26" t="n">
         <v>98</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="23" t="n">
+      <c r="E59" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="J59" s="29" t="n">
+      <c r="J59" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="19" t="s">
         <v>292</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="60">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
@@ -6998,7 +6978,7 @@
       <c r="I62" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J62" s="34" t="n">
+      <c r="J62" s="31" t="n">
         <v>1.75</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -7033,7 +7013,7 @@
       <c r="I63" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J63" s="34" t="n">
+      <c r="J63" s="31" t="n">
         <v>1.75</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -7068,7 +7048,7 @@
       <c r="I64" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="J64" s="34" t="n">
+      <c r="J64" s="31" t="n">
         <v>1.75</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -7076,107 +7056,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="65">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="23" t="n">
+      <c r="E65" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="35" t="n">
+      <c r="J65" s="32" t="n">
         <v>1.75</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K65" s="19" t="s">
         <v>317</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="66">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="24" t="n">
+      <c r="B66" s="23" t="n">
         <v>90</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="J66" s="55" t="n">
+      <c r="J66" s="52" t="n">
         <v>1.75</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="21" t="s">
         <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="67">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J67" s="55" t="n">
+      <c r="J67" s="52" t="n">
         <v>1.75</v>
       </c>
-      <c r="K67" s="22" t="s">
+      <c r="K67" s="21" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7202,13 +7182,13 @@
       <c r="G68" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="11" t="s">
         <v>332</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="J68" s="34" t="n">
+      <c r="J68" s="31" t="n">
         <v>1.75</v>
       </c>
       <c r="K68" s="4" t="s">
@@ -7243,7 +7223,7 @@
       <c r="I69" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J69" s="43" t="n">
+      <c r="J69" s="40" t="n">
         <v>1.75</v>
       </c>
       <c r="K69" s="11" t="s">
@@ -7293,7 +7273,7 @@
       <c r="I71" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="J71" s="43" t="n">
+      <c r="J71" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K71" s="11" t="s">
@@ -7307,7 +7287,7 @@
       <c r="B72" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="48" t="s">
         <v>348</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -7328,7 +7308,7 @@
       <c r="I72" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="J72" s="43" t="n">
+      <c r="J72" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K72" s="11" t="s">
@@ -7357,13 +7337,13 @@
       <c r="G73" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H73" s="11" t="s">
         <v>354</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J73" s="34" t="n">
+      <c r="J73" s="31" t="n">
         <v>1.25</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -7371,107 +7351,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="74">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B74" s="27" t="n">
+      <c r="B74" s="26" t="n">
         <v>36</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="23" t="n">
+      <c r="E74" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H74" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="I74" s="20" t="s">
+      <c r="I74" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J74" s="35" t="n">
+      <c r="J74" s="32" t="n">
         <v>1.25</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K74" s="19" t="s">
         <v>361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="75">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B75" s="27" t="n">
+      <c r="B75" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E75" s="23" t="n">
+      <c r="E75" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H75" s="28" t="s">
+      <c r="H75" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="J75" s="35" t="n">
+      <c r="J75" s="32" t="n">
         <v>1.25</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K75" s="19" t="s">
         <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="76">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B76" s="27" t="n">
+      <c r="B76" s="26" t="n">
         <v>33</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="H76" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="I76" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="J76" s="35" t="n">
+      <c r="J76" s="32" t="n">
         <v>1.25</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K76" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7479,7 +7459,7 @@
       <c r="A77" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -7497,7 +7477,7 @@
       <c r="G77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="11" t="s">
         <v>373</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -7532,13 +7512,13 @@
       <c r="G78" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H78" s="30" t="s">
+      <c r="H78" s="11" t="s">
         <v>377</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J78" s="34" t="n">
+      <c r="J78" s="31" t="n">
         <v>1.25</v>
       </c>
       <c r="K78" s="4" t="s">
@@ -7552,7 +7532,7 @@
       <c r="B79" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="53" t="s">
         <v>381</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -7573,7 +7553,7 @@
       <c r="I79" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="J79" s="43" t="n">
+      <c r="J79" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K79" s="11" t="s">
@@ -7584,7 +7564,7 @@
       <c r="A80" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B80" s="31" t="n">
+      <c r="B80" s="28" t="n">
         <v>114</v>
       </c>
       <c r="C80" s="10"/>
@@ -7610,72 +7590,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="81">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="23" t="n">
+      <c r="E81" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="20" t="s">
+      <c r="J81" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K81" s="20" t="s">
+      <c r="K81" s="19" t="s">
         <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="82">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B82" s="27" t="n">
+      <c r="B82" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="23" t="n">
+      <c r="E82" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H82" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="J82" s="35" t="n">
+      <c r="J82" s="32" t="n">
         <v>1.25</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="19" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7686,7 +7666,7 @@
       <c r="B83" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="49" t="s">
         <v>395</v>
       </c>
       <c r="D83" s="15" t="s">
@@ -7701,13 +7681,13 @@
       <c r="G83" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H83" s="11" t="s">
         <v>396</v>
       </c>
       <c r="I83" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="J83" s="53" t="n">
+      <c r="J83" s="50" t="n">
         <v>1.25</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -7742,7 +7722,7 @@
       <c r="I84" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J84" s="43" t="n">
+      <c r="J84" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K84" s="11" t="s">
@@ -7750,19 +7730,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="85">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
@@ -7803,7 +7783,7 @@
       <c r="A87" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B87" s="31" t="n">
+      <c r="B87" s="28" t="n">
         <v>18</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -7812,10 +7792,10 @@
       <c r="D87" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="32" t="n">
+      <c r="E87" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="F87" s="31" t="n">
+      <c r="F87" s="28" t="n">
         <v>170</v>
       </c>
       <c r="G87" s="9" t="s">
@@ -7827,7 +7807,7 @@
       <c r="I87" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J87" s="58" t="n">
+      <c r="J87" s="54" t="n">
         <v>2</v>
       </c>
       <c r="K87" s="9" t="s">
@@ -7847,10 +7827,10 @@
       <c r="D88" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="32" t="n">
+      <c r="E88" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="F88" s="31" t="n">
+      <c r="F88" s="28" t="n">
         <v>184</v>
       </c>
       <c r="G88" s="9" t="s">
@@ -7862,7 +7842,7 @@
       <c r="I88" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J88" s="58" t="n">
+      <c r="J88" s="54" t="n">
         <v>3.5</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -7906,16 +7886,16 @@
       <c r="G90" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="H90" s="30" t="s">
+      <c r="H90" s="11" t="s">
         <v>419</v>
       </c>
       <c r="I90" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="J90" s="53" t="n">
+      <c r="J90" s="50" t="n">
         <v>1.25</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K90" s="4" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7947,7 +7927,7 @@
       <c r="I91" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J91" s="43" t="n">
+      <c r="J91" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K91" s="11" t="s">
@@ -7982,7 +7962,7 @@
       <c r="I92" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J92" s="43" t="n">
+      <c r="J92" s="40" t="n">
         <v>1.25</v>
       </c>
       <c r="K92" s="11" t="s">
@@ -8061,7 +8041,7 @@
       <c r="G95" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H95" s="30" t="s">
+      <c r="H95" s="11" t="s">
         <v>439</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -8096,7 +8076,7 @@
       <c r="G96" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H96" s="30" t="s">
+      <c r="H96" s="11" t="s">
         <v>445</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -8110,107 +8090,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="97">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B97" s="25" t="n">
+      <c r="B97" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="25" t="n">
+      <c r="E97" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H97" s="22" t="s">
+      <c r="H97" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="I97" s="22" t="s">
+      <c r="I97" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="J97" s="26" t="n">
+      <c r="J97" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="K97" s="22" t="s">
+      <c r="K97" s="21" t="s">
         <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="98">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="23" t="n">
+      <c r="E98" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="H98" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="J98" s="29" t="n">
+      <c r="J98" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K98" s="20" t="s">
+      <c r="K98" s="19" t="s">
         <v>459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="99">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E99" s="23" t="n">
+      <c r="E99" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G99" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="J99" s="29" t="n">
+      <c r="J99" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K99" s="20" t="s">
+      <c r="K99" s="19" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8218,7 +8198,7 @@
       <c r="A100" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -8236,7 +8216,7 @@
       <c r="G100" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H100" s="30" t="s">
+      <c r="H100" s="11" t="s">
         <v>469</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -8271,7 +8251,7 @@
       <c r="G101" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="11" t="s">
         <v>472</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -8306,7 +8286,7 @@
       <c r="G102" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="11" t="s">
         <v>476</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -8320,107 +8300,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="103">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="B103" s="27" t="n">
+      <c r="B103" s="26" t="n">
         <v>71</v>
       </c>
-      <c r="C103" s="40" t="s">
+      <c r="C103" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E103" s="23" t="n">
+      <c r="E103" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="H103" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="I103" s="20" t="s">
+      <c r="I103" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="J103" s="29" t="n">
+      <c r="J103" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K103" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="104">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="B104" s="27" t="n">
+      <c r="B104" s="26" t="n">
         <v>73</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E104" s="23" t="n">
+      <c r="E104" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H104" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="J104" s="29" t="n">
+      <c r="J104" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K104" s="28" t="s">
+      <c r="K104" s="21" t="s">
         <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="105">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="B105" s="27" t="n">
+      <c r="B105" s="26" t="n">
         <v>72</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E105" s="23" t="n">
+      <c r="E105" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="28" t="s">
+      <c r="H105" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="I105" s="20" t="s">
+      <c r="I105" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="J105" s="29" t="n">
+      <c r="J105" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="K105" s="20" t="s">
+      <c r="K105" s="19" t="s">
         <v>490</v>
       </c>
     </row>
@@ -8452,7 +8432,7 @@
       <c r="I106" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="J106" s="43" t="n">
+      <c r="J106" s="40" t="n">
         <v>2.25</v>
       </c>
       <c r="K106" s="11" t="s">
@@ -8466,7 +8446,7 @@
       <c r="B107" s="16" t="n">
         <v>206</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="49" t="s">
         <v>497</v>
       </c>
       <c r="D107" s="15" t="s">
@@ -8481,13 +8461,13 @@
       <c r="G107" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="H107" s="30" t="s">
+      <c r="H107" s="11" t="s">
         <v>498</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="J107" s="53" t="n">
+      <c r="J107" s="50" t="n">
         <v>2.25</v>
       </c>
       <c r="K107" s="15" t="s">
@@ -8536,7 +8516,7 @@
       <c r="B109" s="14" t="n">
         <v>205</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="48" t="s">
         <v>502</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -8557,7 +8537,7 @@
       <c r="I109" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="J109" s="43" t="n">
+      <c r="J109" s="40" t="n">
         <v>2.25</v>
       </c>
       <c r="K109" s="11" t="s">
@@ -8601,7 +8581,7 @@
       <c r="G111" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H111" s="30" t="s">
+      <c r="H111" s="11" t="s">
         <v>509</v>
       </c>
       <c r="I111" s="4" t="s">
@@ -8650,107 +8630,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="113">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B113" s="27" t="n">
+      <c r="B113" s="26" t="n">
         <v>77</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E113" s="23" t="n">
+      <c r="E113" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="F113" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G113" s="20" t="s">
+      <c r="G113" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="J113" s="29" t="n">
+      <c r="J113" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K113" s="20" t="s">
+      <c r="K113" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="114">
-      <c r="A114" s="45" t="s">
+      <c r="A114" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="B114" s="49" t="n">
+      <c r="B114" s="46" t="n">
         <v>78</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="47" t="n">
+      <c r="E114" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="F114" s="45" t="s">
+      <c r="F114" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G114" s="45" t="s">
+      <c r="G114" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="I114" s="45" t="s">
+      <c r="I114" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="J114" s="48" t="n">
+      <c r="J114" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="K114" s="45" t="s">
+      <c r="K114" s="42" t="s">
         <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="115">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="B115" s="49" t="n">
+      <c r="B115" s="46" t="n">
         <v>76</v>
       </c>
-      <c r="C115" s="45" t="s">
+      <c r="C115" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="D115" s="45" t="s">
+      <c r="D115" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E115" s="47" t="n">
+      <c r="E115" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="F115" s="45" t="s">
+      <c r="F115" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G115" s="45" t="s">
+      <c r="G115" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="I115" s="45" t="s">
+      <c r="I115" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="J115" s="48" t="n">
+      <c r="J115" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="K115" s="45" t="s">
+      <c r="K115" s="42" t="s">
         <v>530</v>
       </c>
     </row>
@@ -8761,7 +8741,7 @@
       <c r="B116" s="16" t="n">
         <v>79</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="49" t="s">
         <v>532</v>
       </c>
       <c r="D116" s="15" t="s">
@@ -8776,13 +8756,13 @@
       <c r="G116" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="H116" s="30" t="s">
+      <c r="H116" s="11" t="s">
         <v>533</v>
       </c>
       <c r="I116" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="J116" s="19" t="n">
+      <c r="J116" s="18" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="15" t="s">
@@ -8846,7 +8826,7 @@
       <c r="B119" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C119" s="56" t="s">
+      <c r="C119" s="48" t="s">
         <v>543</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -8867,7 +8847,7 @@
       <c r="I119" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="J119" s="60" t="n">
+      <c r="J119" s="56" t="n">
         <v>0.625</v>
       </c>
       <c r="K119" s="11" t="s">
@@ -8902,7 +8882,7 @@
       <c r="I120" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="J120" s="60" t="n">
+      <c r="J120" s="56" t="n">
         <v>0.625</v>
       </c>
       <c r="K120" s="11" t="s">
@@ -8937,7 +8917,7 @@
       <c r="I121" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="J121" s="60" t="n">
+      <c r="J121" s="56" t="n">
         <v>0.625</v>
       </c>
       <c r="K121" s="11" t="s">
@@ -8945,142 +8925,142 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="122">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="B122" s="27" t="n">
+      <c r="B122" s="26" t="n">
         <v>115</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E122" s="23" t="n">
+      <c r="E122" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H122" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="J122" s="61" t="n">
+      <c r="J122" s="57" t="n">
         <v>0.625</v>
       </c>
-      <c r="K122" s="20" t="s">
+      <c r="K122" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="123">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="B123" s="24" t="n">
+      <c r="B123" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="C123" s="59" t="s">
+      <c r="C123" s="55" t="s">
         <v>563</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="25" t="n">
+      <c r="E123" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="G123" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="H123" s="22" t="s">
+      <c r="H123" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="I123" s="22" t="s">
+      <c r="I123" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="J123" s="62" t="n">
+      <c r="J123" s="58" t="n">
         <v>0.875</v>
       </c>
-      <c r="K123" s="22" t="s">
+      <c r="K123" s="21" t="s">
         <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="124">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="B124" s="25" t="n">
+      <c r="B124" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="C124" s="59" t="s">
+      <c r="C124" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="25" t="n">
+      <c r="E124" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="H124" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="I124" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="J124" s="62" t="n">
+      <c r="J124" s="58" t="n">
         <v>0.625</v>
       </c>
-      <c r="K124" s="22" t="s">
+      <c r="K124" s="21" t="s">
         <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="125">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="B125" s="24" t="n">
+      <c r="B125" s="23" t="n">
         <v>69</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C125" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E125" s="25" t="n">
+      <c r="E125" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="I125" s="22" t="s">
+      <c r="I125" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="J125" s="62" t="n">
+      <c r="J125" s="58" t="n">
         <v>0.625</v>
       </c>
-      <c r="K125" s="22" t="s">
+      <c r="K125" s="21" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9112,7 +9092,7 @@
       <c r="I126" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="J126" s="60" t="n">
+      <c r="J126" s="56" t="n">
         <v>0.625</v>
       </c>
       <c r="K126" s="11" t="s">
@@ -9147,7 +9127,7 @@
       <c r="I127" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="J127" s="60" t="n">
+      <c r="J127" s="56" t="n">
         <v>0.625</v>
       </c>
       <c r="K127" s="11" t="s">
@@ -9158,7 +9138,7 @@
       <c r="A128" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -9414,62 +9394,62 @@
       <c r="K136" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="137">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="B137" s="24" t="n">
+      <c r="B137" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E137" s="25" t="n">
+      <c r="E137" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G137" s="22" t="s">
+      <c r="G137" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="H137" s="22" t="s">
+      <c r="H137" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="22" t="s">
+      <c r="I137" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="J137" s="26" t="n">
+      <c r="J137" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="K137" s="22" t="s">
+      <c r="K137" s="21" t="s">
         <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="138">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="B138" s="63" t="n">
+      <c r="B138" s="59" t="n">
         <v>112</v>
       </c>
       <c r="C138" s="10"/>
-      <c r="D138" s="36" t="s">
+      <c r="D138" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="E138" s="38" t="n">
+      <c r="E138" s="35" t="n">
         <v>8</v>
       </c>
       <c r="F138" s="10"/>
-      <c r="G138" s="36" t="s">
+      <c r="G138" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="H138" s="36" t="s">
+      <c r="H138" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="I138" s="36" t="s">
+      <c r="I138" s="33" t="s">
         <v>615</v>
       </c>
       <c r="J138" s="10"/>
@@ -9573,7 +9553,7 @@
         <v>630</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E142" s="14" t="n">
         <v>2</v>
@@ -9598,72 +9578,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="143">
-      <c r="A143" s="22" t="s">
+      <c r="A143" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="B143" s="59" t="s">
+      <c r="B143" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E143" s="25" t="n">
+      <c r="E143" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G143" s="22" t="s">
+      <c r="G143" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="H143" s="22" t="s">
+      <c r="H143" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="I143" s="22" t="s">
+      <c r="I143" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="J143" s="26" t="n">
+      <c r="J143" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K143" s="22" t="s">
+      <c r="K143" s="21" t="s">
         <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="144">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="B144" s="27" t="n">
+      <c r="B144" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D144" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E144" s="27" t="n">
+      <c r="E144" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F144" s="20" t="s">
+      <c r="F144" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="H144" s="20" t="s">
+      <c r="H144" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I144" s="20" t="s">
+      <c r="I144" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="J144" s="29" t="n">
+      <c r="J144" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K144" s="22" t="s">
+      <c r="K144" s="21" t="s">
         <v>643</v>
       </c>
     </row>
@@ -9678,7 +9658,7 @@
         <v>645</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E145" s="5" t="n">
         <v>1</v>
@@ -9738,72 +9718,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="147">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="B147" s="27" t="n">
+      <c r="B147" s="26" t="n">
         <v>120</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D147" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E147" s="27" t="n">
+      <c r="E147" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F147" s="20" t="s">
+      <c r="F147" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="20" t="s">
+      <c r="G147" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="J147" s="29" t="n">
+      <c r="J147" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="K147" s="22" t="s">
+      <c r="K147" s="21" t="s">
         <v>656</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="148">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="B148" s="27" t="n">
+      <c r="B148" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="D148" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E148" s="27" t="n">
+      <c r="D148" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F148" s="20" t="s">
+      <c r="F148" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G148" s="20" t="s">
+      <c r="G148" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="H148" s="20" t="s">
+      <c r="H148" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="J148" s="29" t="n">
+      <c r="J148" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="K148" s="22" t="s">
+      <c r="K148" s="21" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9899,7 +9879,7 @@
       <c r="B152" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="C152" s="56" t="s">
+      <c r="C152" s="48" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="11" t="s">
@@ -10040,7 +10020,7 @@
       <c r="I156" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="J156" s="34" t="n">
+      <c r="J156" s="31" t="n">
         <v>0.75</v>
       </c>
       <c r="K156" s="4" t="s">
@@ -10270,107 +10250,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="165">
-      <c r="A165" s="22" t="s">
+      <c r="A165" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="C165" s="40" t="s">
+      <c r="C165" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="D165" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E165" s="25" t="n">
+      <c r="E165" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F165" s="22" t="s">
+      <c r="F165" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="G165" s="22" t="s">
+      <c r="G165" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="H165" s="22" t="s">
+      <c r="H165" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I165" s="22" t="s">
+      <c r="I165" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="J165" s="26" t="n">
+      <c r="J165" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K165" s="22" t="s">
+      <c r="K165" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="166">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="D166" s="20" t="s">
+      <c r="D166" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E166" s="23" t="n">
+      <c r="E166" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F166" s="20" t="s">
+      <c r="F166" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="H166" s="20" t="s">
+      <c r="H166" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I166" s="20" t="s">
+      <c r="I166" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="J166" s="29" t="n">
+      <c r="J166" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K166" s="20" t="s">
+      <c r="K166" s="19" t="s">
         <v>720</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="167">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D167" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="E167" s="23" t="n">
+      <c r="E167" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F167" s="20" t="s">
+      <c r="F167" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="H167" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="J167" s="29" t="n">
+      <c r="J167" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K167" s="22" t="s">
+      <c r="K167" s="21" t="s">
         <v>726</v>
       </c>
     </row>
@@ -10416,7 +10396,7 @@
       <c r="B169" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="C169" s="52" t="s">
+      <c r="C169" s="49" t="s">
         <v>734</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -10431,7 +10411,7 @@
       <c r="G169" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="H169" s="30" t="s">
+      <c r="H169" s="11" t="s">
         <v>735</v>
       </c>
       <c r="I169" s="4" t="s">
@@ -10530,72 +10510,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="173">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D173" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E173" s="23" t="n">
+      <c r="E173" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F173" s="20" t="s">
+      <c r="F173" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="G173" s="20" t="s">
+      <c r="G173" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="H173" s="20" t="s">
+      <c r="H173" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="J173" s="29" t="n">
+      <c r="J173" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="K173" s="20" t="s">
+      <c r="K173" s="19" t="s">
         <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="174">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="E174" s="23" t="n">
+      <c r="E174" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F174" s="20" t="s">
+      <c r="F174" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G174" s="20" t="s">
+      <c r="G174" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="H174" s="20" t="s">
+      <c r="H174" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J174" s="29" t="n">
+      <c r="J174" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="K174" s="22" t="s">
+      <c r="K174" s="21" t="s">
         <v>759</v>
       </c>
     </row>
@@ -10671,7 +10651,7 @@
       <c r="G177" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="H177" s="33" t="s">
+      <c r="H177" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I177" s="4" t="s">
@@ -10715,7 +10695,7 @@
       <c r="J178" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K178" s="30" t="s">
+      <c r="K178" s="11" t="s">
         <v>777</v>
       </c>
     </row>
@@ -10755,107 +10735,107 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="180">
-      <c r="A180" s="22" t="s">
+      <c r="A180" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B180" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E180" s="23" t="n">
+      <c r="E180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F180" s="20" t="s">
+      <c r="F180" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="G180" s="20" t="s">
+      <c r="G180" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H180" s="20" t="s">
+      <c r="H180" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I180" s="28" t="s">
+      <c r="I180" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="J180" s="29" t="n">
+      <c r="J180" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K180" s="20" t="s">
+      <c r="K180" s="19" t="s">
         <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="181">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="19" t="s">
         <v>786</v>
       </c>
-      <c r="D181" s="20" t="s">
+      <c r="D181" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E181" s="23" t="n">
+      <c r="E181" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F181" s="20" t="s">
+      <c r="F181" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="G181" s="20" t="s">
+      <c r="G181" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H181" s="20" t="s">
+      <c r="H181" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="J181" s="29" t="n">
+      <c r="J181" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K181" s="20" t="s">
+      <c r="K181" s="19" t="s">
         <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="182">
-      <c r="A182" s="20" t="s">
+      <c r="A182" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="B182" s="27" t="n">
+      <c r="B182" s="26" t="n">
         <v>33</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E182" s="23" t="n">
+      <c r="E182" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F182" s="20" t="s">
+      <c r="F182" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="G182" s="20" t="s">
+      <c r="G182" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H182" s="28" t="s">
+      <c r="H182" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I182" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="J182" s="29" t="n">
+      <c r="J182" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K182" s="20" t="s">
+      <c r="K182" s="19" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10901,7 +10881,7 @@
       <c r="B184" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="C184" s="57" t="s">
+      <c r="C184" s="53" t="s">
         <v>800</v>
       </c>
       <c r="D184" s="4" t="s">
@@ -11085,37 +11065,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="190">
-      <c r="A190" s="20" t="s">
+      <c r="A190" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="B190" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D190" s="20" t="s">
+      <c r="D190" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="E190" s="23" t="n">
+      <c r="E190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F190" s="20" t="s">
+      <c r="F190" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="G190" s="20" t="s">
+      <c r="G190" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H190" s="20" t="s">
+      <c r="H190" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="J190" s="29" t="n">
+      <c r="J190" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K190" s="20" t="s">
+      <c r="K190" s="19" t="s">
         <v>823</v>
       </c>
     </row>
@@ -11220,7 +11200,7 @@
       <c r="E194" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F194" s="64" t="s">
+      <c r="F194" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G194" s="11" t="s">
@@ -11246,7 +11226,7 @@
       <c r="B195" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C195" s="52" t="s">
+      <c r="C195" s="49" t="s">
         <v>842</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -11261,7 +11241,7 @@
       <c r="G195" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="H195" s="30" t="s">
+      <c r="H195" s="11" t="s">
         <v>844</v>
       </c>
       <c r="I195" s="4" t="s">
@@ -11281,7 +11261,7 @@
       <c r="B196" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="C196" s="57" t="s">
+      <c r="C196" s="53" t="s">
         <v>634</v>
       </c>
       <c r="D196" s="11" t="s">
@@ -11316,7 +11296,7 @@
       <c r="B197" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="53" t="s">
         <v>850</v>
       </c>
       <c r="D197" s="11" t="s">
@@ -11345,37 +11325,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="198">
-      <c r="A198" s="22" t="s">
+      <c r="A198" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="B198" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C198" s="59" t="s">
+      <c r="C198" s="55" t="s">
         <v>853</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="D198" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E198" s="25" t="n">
+      <c r="E198" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F198" s="22" t="s">
+      <c r="F198" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G198" s="22" t="s">
+      <c r="G198" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H198" s="22" t="s">
+      <c r="H198" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I198" s="22" t="s">
+      <c r="I198" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="J198" s="26" t="n">
+      <c r="J198" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K198" s="22" t="s">
+      <c r="K198" s="21" t="s">
         <v>785</v>
       </c>
     </row>
@@ -11415,13 +11395,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="200">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="11" t="s">
         <v>862</v>
       </c>
       <c r="B200" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="C200" s="33" t="s">
+      <c r="C200" s="30" t="s">
         <v>863</v>
       </c>
       <c r="D200" s="4" t="s">
@@ -11456,7 +11436,7 @@
       <c r="B201" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C201" s="56" t="s">
+      <c r="C201" s="48" t="s">
         <v>867</v>
       </c>
       <c r="D201" s="11" t="s">
@@ -11485,72 +11465,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="202">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="C202" s="40" t="s">
+      <c r="C202" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D202" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="E202" s="23" t="n">
+      <c r="E202" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F202" s="20" t="s">
+      <c r="F202" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G202" s="20" t="s">
+      <c r="G202" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="H202" s="28" t="s">
+      <c r="H202" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="I202" s="20" t="s">
+      <c r="I202" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="J202" s="29" t="n">
+      <c r="J202" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K202" s="20" t="s">
+      <c r="K202" s="19" t="s">
         <v>836</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="203">
-      <c r="A203" s="20" t="s">
+      <c r="A203" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="B203" s="20" t="s">
+      <c r="B203" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="C203" s="41" t="s">
+      <c r="C203" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="D203" s="20" t="s">
+      <c r="D203" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E203" s="23" t="n">
+      <c r="E203" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F203" s="20" t="s">
+      <c r="F203" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G203" s="20" t="s">
+      <c r="G203" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="H203" s="28" t="s">
+      <c r="H203" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="I203" s="20" t="s">
+      <c r="I203" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="J203" s="29" t="n">
+      <c r="J203" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="K203" s="19" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11561,7 +11541,7 @@
       <c r="B204" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C204" s="57" t="s">
+      <c r="C204" s="53" t="s">
         <v>882</v>
       </c>
       <c r="D204" s="4" t="s">
@@ -11576,7 +11556,7 @@
       <c r="G204" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="H204" s="30" t="s">
+      <c r="H204" s="11" t="s">
         <v>884</v>
       </c>
       <c r="I204" s="4" t="s">
@@ -11611,7 +11591,7 @@
       <c r="G205" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="H205" s="30" t="s">
+      <c r="H205" s="11" t="s">
         <v>888</v>
       </c>
       <c r="I205" s="4" t="s">
@@ -11664,7 +11644,7 @@
       <c r="H207" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I207" s="30" t="s">
+      <c r="I207" s="11" t="s">
         <v>893</v>
       </c>
       <c r="J207" s="8" t="n">
@@ -11699,7 +11679,7 @@
       <c r="H208" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="I208" s="30" t="s">
+      <c r="I208" s="11" t="s">
         <v>898</v>
       </c>
       <c r="J208" s="8" t="n">
@@ -11710,37 +11690,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="209">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="E209" s="25" t="n">
+      <c r="E209" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F209" s="22" t="s">
+      <c r="F209" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G209" s="22" t="s">
+      <c r="G209" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H209" s="22" t="s">
+      <c r="H209" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="I209" s="22" t="s">
+      <c r="I209" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="J209" s="26" t="n">
+      <c r="J209" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K209" s="22" t="s">
+      <c r="K209" s="21" t="s">
         <v>903</v>
       </c>
     </row>
@@ -11815,19 +11795,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="212">
-      <c r="A212" s="54" t="s">
+      <c r="A212" s="51" t="s">
         <v>910</v>
       </c>
-      <c r="B212" s="54"/>
-      <c r="C212" s="54"/>
-      <c r="D212" s="54"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
-      <c r="J212" s="54"/>
-      <c r="K212" s="54"/>
+      <c r="B212" s="51"/>
+      <c r="C212" s="51"/>
+      <c r="D212" s="51"/>
+      <c r="E212" s="51"/>
+      <c r="F212" s="51"/>
+      <c r="G212" s="51"/>
+      <c r="H212" s="51"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="51"/>
+      <c r="K212" s="51"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="213">
       <c r="A213" s="1" t="s">
@@ -11871,7 +11851,7 @@
       <c r="B214" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C214" s="33" t="s">
+      <c r="C214" s="30" t="s">
         <v>911</v>
       </c>
       <c r="D214" s="4" t="s">
@@ -11935,72 +11915,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="216">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="B216" s="20" t="s">
+      <c r="B216" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C216" s="59" t="s">
+      <c r="C216" s="55" t="s">
         <v>918</v>
       </c>
-      <c r="D216" s="20" t="s">
+      <c r="D216" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="E216" s="27" t="n">
+      <c r="E216" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F216" s="28" t="s">
+      <c r="F216" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="G216" s="20" t="s">
+      <c r="G216" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H216" s="20" t="s">
+      <c r="H216" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="I216" s="20" t="s">
+      <c r="I216" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="J216" s="29" t="n">
+      <c r="J216" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K216" s="20" t="s">
+      <c r="K216" s="19" t="s">
         <v>921</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="217">
-      <c r="A217" s="22" t="s">
+      <c r="A217" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="B217" s="22" t="s">
+      <c r="B217" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="C217" s="22" t="s">
+      <c r="C217" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="D217" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="E217" s="25" t="n">
+      <c r="E217" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F217" s="22" t="s">
+      <c r="F217" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="G217" s="22" t="s">
+      <c r="G217" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H217" s="22" t="s">
+      <c r="H217" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="I217" s="22" t="s">
+      <c r="I217" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="J217" s="26" t="n">
+      <c r="J217" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K217" s="22" t="s">
+      <c r="K217" s="21" t="s">
         <v>927</v>
       </c>
     </row>
@@ -12075,19 +12055,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="220">
-      <c r="A220" s="65" t="s">
+      <c r="A220" s="60" t="s">
         <v>937</v>
       </c>
-      <c r="B220" s="65"/>
-      <c r="C220" s="65"/>
-      <c r="D220" s="65"/>
-      <c r="E220" s="65"/>
-      <c r="F220" s="65"/>
-      <c r="G220" s="65"/>
-      <c r="H220" s="65"/>
-      <c r="I220" s="65"/>
-      <c r="J220" s="65"/>
-      <c r="K220" s="65"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="60"/>
+      <c r="D220" s="60"/>
+      <c r="E220" s="60"/>
+      <c r="F220" s="60"/>
+      <c r="G220" s="60"/>
+      <c r="H220" s="60"/>
+      <c r="I220" s="60"/>
+      <c r="J220" s="60"/>
+      <c r="K220" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/sits/msit_hydrans.xlsx
+++ b/sits/msit_hydrans.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="943">
   <si>
     <t>Designation</t>
   </si>
@@ -3972,6 +3972,58 @@
     <t>See (510.2); EW=1</t>
   </si>
   <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>R1.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36(12)PP</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">/
+18(6)P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+  </si>
+  <si>
+    <t>SB(1)</t>
+  </si>
+  <si>
+    <t>From BATS: 30+6 From STB: 20+6</t>
+  </si>
+  <si>
+    <t>Upgrade Only</t>
+  </si>
+  <si>
+    <t>Starbase. See EW Chart. See (433.41), (441.0), and (510.3). Module
+Limits 4FTM+2PFM.</t>
+  </si>
+  <si>
     <t>Ftr-Depot</t>
   </si>
   <si>
@@ -4024,9 +4076,6 @@
   </si>
   <si>
     <t>From BATS: 12+ftrs From BS: 15+ftrs</t>
-  </si>
-  <si>
-    <t>Upgrade Only</t>
   </si>
   <si>
     <t>Sector Base; see EW chart.</t>
@@ -4185,9 +4234,6 @@
       </rPr>
       <t xml:space="preserve">◆</t>
     </r>
-  </si>
-  <si>
-    <t>SB(1)</t>
   </si>
   <si>
     <t>From SB: 24+12
@@ -4950,10 +4996,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A127" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D145" activeCellId="0" pane="topLeft" sqref="D145"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A190" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H198" activeCellId="0" pane="topLeft" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11324,205 +11370,205 @@
         <v>851</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="198">
-      <c r="A198" s="21" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="198">
+      <c r="A198" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C198" s="53" t="s">
+        <v>854</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J198" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="199">
+      <c r="A199" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="B199" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C198" s="55" t="s">
-        <v>853</v>
-      </c>
-      <c r="D198" s="21" t="s">
+      <c r="C199" s="55" t="s">
+        <v>860</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E198" s="24" t="n">
+      <c r="E199" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F199" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G198" s="21" t="s">
+      <c r="G199" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H198" s="21" t="s">
+      <c r="H199" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I198" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="J198" s="25" t="n">
+      <c r="I199" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="J199" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K198" s="21" t="s">
+      <c r="K199" s="21" t="s">
         <v>785</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="199">
-      <c r="A199" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="C199" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="200">
+      <c r="A200" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E200" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="I200" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E199" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="H199" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="J199" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="200">
-      <c r="A200" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="B200" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C200" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E200" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="J200" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="201">
+        <v>867</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="201">
       <c r="A201" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="B201" s="14" t="n">
+        <v>868</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J201" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="202">
+      <c r="A202" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B202" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C201" s="48" t="s">
-        <v>867</v>
-      </c>
-      <c r="D201" s="11" t="s">
+      <c r="C202" s="48" t="s">
+        <v>873</v>
+      </c>
+      <c r="D202" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E201" s="12" t="n">
+      <c r="E202" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F201" s="11" t="s">
+      <c r="F202" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="G201" s="11" t="s">
+      <c r="G202" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="H201" s="11" t="s">
+      <c r="H202" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I201" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="J201" s="13" t="n">
+      <c r="I202" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="J202" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K201" s="11" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="202">
-      <c r="A202" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="B202" s="21" t="s">
-        <v>871</v>
-      </c>
-      <c r="C202" s="37" t="s">
-        <v>872</v>
-      </c>
-      <c r="D202" s="19" t="s">
+      <c r="K202" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="203">
+      <c r="A203" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="D203" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="E202" s="22" t="n">
+      <c r="E203" s="22" t="n">
         <v>9</v>
-      </c>
-      <c r="F202" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>834</v>
-      </c>
-      <c r="H202" s="21" t="s">
-        <v>873</v>
-      </c>
-      <c r="I202" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="J202" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K202" s="19" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="203">
-      <c r="A203" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>875</v>
-      </c>
-      <c r="C203" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="D203" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="22" t="n">
-        <v>10</v>
       </c>
       <c r="F203" s="19" t="s">
         <v>107</v>
       </c>
       <c r="G203" s="19" t="s">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I203" s="19" t="s">
         <v>587</v>
@@ -11531,141 +11577,141 @@
         <v>0</v>
       </c>
       <c r="K203" s="19" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="204">
-      <c r="A204" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="204">
+      <c r="A204" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="C204" s="53" t="s">
+      <c r="C204" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E204" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F204" s="4" t="s">
+      <c r="E204" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F204" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G204" s="4" t="s">
+      <c r="G204" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="H204" s="11" t="s">
+      <c r="H204" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="I204" s="4" t="s">
+      <c r="I204" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="J204" s="8" t="n">
+      <c r="J204" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K204" s="4" t="s">
-        <v>879</v>
+      <c r="K204" s="19" t="s">
+        <v>885</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="205">
       <c r="A205" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="B205" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="B205" s="4" t="s">
         <v>887</v>
       </c>
+      <c r="C205" s="53" t="s">
+        <v>888</v>
+      </c>
       <c r="D205" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E205" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>860</v>
+        <v>587</v>
       </c>
       <c r="J205" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="206">
-      <c r="A206" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="206">
+      <c r="A206" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="207">
-      <c r="A207" s="4" t="s">
+      <c r="B206" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="B207" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C207" s="4" t="s">
+      <c r="C206" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="7" t="n">
+      <c r="D206" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E206" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J206" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="I207" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="J207" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="K206" s="4" t="s">
         <v>894</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="207">
+      <c r="A207" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="208">
       <c r="A208" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B208" s="5" t="n">
         <v>14</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E208" s="7" t="n">
         <v>0</v>
@@ -11677,7 +11723,7 @@
         <v>587</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>897</v>
+        <v>587</v>
       </c>
       <c r="I208" s="11" t="s">
         <v>898</v>
@@ -11689,333 +11735,333 @@
         <v>899</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="209">
-      <c r="A209" s="21" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="209">
+      <c r="A209" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="B209" s="21" t="s">
+      <c r="B209" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E209" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="I209" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="J209" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="210">
+      <c r="A210" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="B210" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C209" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="D209" s="21" t="s">
+      <c r="C210" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="D210" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="E209" s="24" t="n">
+      <c r="E210" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F209" s="21" t="s">
+      <c r="F210" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="G209" s="21" t="s">
+      <c r="G210" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H209" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="I209" s="21" t="s">
+      <c r="H210" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="I210" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="J209" s="25" t="n">
+      <c r="J210" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K209" s="21" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="210">
-      <c r="A210" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B210" s="11" t="s">
+      <c r="K210" s="21" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="211">
+      <c r="A211" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B211" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C211" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D211" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E210" s="12" t="n">
+      <c r="E211" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F210" s="11" t="s">
+      <c r="F211" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="G210" s="11" t="s">
+      <c r="G211" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="H210" s="11" t="s">
+      <c r="H211" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="I210" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="J210" s="13" t="n">
+      <c r="I211" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="J211" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K210" s="11" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="211">
-      <c r="A211" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="B211" s="4" t="s">
+      <c r="K211" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="212">
+      <c r="A212" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D212" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="E211" s="7" t="n">
+      <c r="E212" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F212" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="G211" s="4" t="s">
+      <c r="G212" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H212" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="J211" s="8" t="n">
+      <c r="I212" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J212" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="212">
-      <c r="A212" s="51" t="s">
-        <v>910</v>
-      </c>
-      <c r="B212" s="51"/>
-      <c r="C212" s="51"/>
-      <c r="D212" s="51"/>
-      <c r="E212" s="51"/>
-      <c r="F212" s="51"/>
-      <c r="G212" s="51"/>
-      <c r="H212" s="51"/>
-      <c r="I212" s="51"/>
-      <c r="J212" s="51"/>
-      <c r="K212" s="51"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="213">
-      <c r="A213" s="1" t="s">
+      <c r="K212" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="213">
+      <c r="A213" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="B213" s="51"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="51"/>
+      <c r="E213" s="51"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="51"/>
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="51"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="214">
+      <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K213" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="214">
-      <c r="A214" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="B214" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="215">
+      <c r="A215" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C214" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D214" s="4" t="s">
+      <c r="C215" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E214" s="7" t="n">
+      <c r="E215" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F215" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G214" s="4" t="s">
+      <c r="G215" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="H214" s="4" t="s">
+      <c r="H215" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I214" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="J214" s="8" t="n">
+      <c r="I215" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="J215" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K214" s="4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="215">
-      <c r="A215" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B215" s="11" t="s">
+      <c r="K215" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="216">
+      <c r="A216" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="D215" s="11" t="s">
+      <c r="C216" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D216" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="12" t="n">
+      <c r="E216" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F215" s="11" t="s">
+      <c r="F216" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G215" s="11" t="s">
+      <c r="G216" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="H215" s="11" t="s">
+      <c r="H216" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I215" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="J215" s="13" t="n">
+      <c r="I216" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="J216" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K215" s="11" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="216">
-      <c r="A216" s="19" t="s">
-        <v>917</v>
-      </c>
-      <c r="B216" s="19" t="s">
+      <c r="K216" s="11" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="217">
+      <c r="A217" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B217" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C216" s="55" t="s">
-        <v>918</v>
-      </c>
-      <c r="D216" s="19" t="s">
+      <c r="C217" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="D217" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="E216" s="26" t="n">
+      <c r="E217" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F216" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="G216" s="19" t="s">
+      <c r="F217" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="G217" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H216" s="19" t="s">
+      <c r="H217" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="I216" s="19" t="s">
-        <v>920</v>
-      </c>
-      <c r="J216" s="27" t="n">
+      <c r="I217" s="19" t="s">
+        <v>925</v>
+      </c>
+      <c r="J217" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K216" s="19" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="217">
-      <c r="A217" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="B217" s="21" t="s">
-        <v>923</v>
-      </c>
-      <c r="C217" s="21" t="s">
-        <v>924</v>
-      </c>
-      <c r="D217" s="21" t="s">
+      <c r="K217" s="19" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="218">
+      <c r="A218" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="D218" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="E217" s="24" t="n">
+      <c r="E218" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="F217" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="G217" s="21" t="s">
+      <c r="F218" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="G218" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="H217" s="21" t="s">
+      <c r="H218" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="I217" s="21" t="s">
-        <v>926</v>
-      </c>
-      <c r="J217" s="25" t="n">
+      <c r="I218" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="J218" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="K217" s="21" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="218">
-      <c r="A218" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E218" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>930</v>
-      </c>
-      <c r="G218" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="H218" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="I218" s="11" t="s">
-        <v>931</v>
-      </c>
-      <c r="J218" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" s="11" t="s">
+      <c r="K218" s="21" t="s">
         <v>932</v>
       </c>
     </row>
@@ -12024,7 +12070,7 @@
         <v>933</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>934</v>
@@ -12036,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>107</v>
+        <v>935</v>
       </c>
       <c r="G219" s="11" t="s">
         <v>587</v>
@@ -12045,29 +12091,64 @@
         <v>587</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J219" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K219" s="11" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="220">
-      <c r="A220" s="60" t="s">
-        <v>937</v>
-      </c>
-      <c r="B220" s="60"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60"/>
-      <c r="I220" s="60"/>
-      <c r="J220" s="60"/>
-      <c r="K220" s="60"/>
+      <c r="A220" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E220" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="J220" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" s="11" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="221">
+      <c r="A221" s="60" t="s">
+        <v>942</v>
+      </c>
+      <c r="B221" s="60"/>
+      <c r="C221" s="60"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="60"/>
+      <c r="F221" s="60"/>
+      <c r="G221" s="60"/>
+      <c r="H221" s="60"/>
+      <c r="I221" s="60"/>
+      <c r="J221" s="60"/>
+      <c r="K221" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -12094,9 +12175,9 @@
     <mergeCell ref="A176:K176"/>
     <mergeCell ref="A186:K186"/>
     <mergeCell ref="A192:K192"/>
-    <mergeCell ref="A206:K206"/>
-    <mergeCell ref="A212:K212"/>
-    <mergeCell ref="A220:K220"/>
+    <mergeCell ref="A207:K207"/>
+    <mergeCell ref="A213:K213"/>
+    <mergeCell ref="A221:K221"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sits/msit_hydrans.xlsx
+++ b/sits/msit_hydrans.xlsx
@@ -204,7 +204,7 @@
     <t>Heavy Carrier Group</t>
   </si>
   <si>
-    <t>ID (CVA)</t>
+    <t>ID</t>
   </si>
   <si>
     <t>10-12(12)/5-6(6)</t>
@@ -4998,8 +4998,8 @@
   </sheetPr>
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A190" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H198" activeCellId="0" pane="topLeft" sqref="H198"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/sits/msit_hydrans.xlsx
+++ b/sits/msit_hydrans.xlsx
@@ -4998,8 +4998,8 @@
   </sheetPr>
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A15" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5717,7 +5717,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>9</v>

--- a/sits/msit_hydrans.xlsx
+++ b/sits/msit_hydrans.xlsx
@@ -408,7 +408,26 @@
     <t>LC</t>
   </si>
   <si>
-    <t>7-9(3)/5(1)</t>
+    <r>
+      <t xml:space="preserve">7-9(3)/5(1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">▲</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val=""/>
+        <charset val="1"/>
+        <family val="1"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>From RN: 2
@@ -461,7 +480,26 @@
     <t>LM</t>
   </si>
   <si>
-    <t>8-9(3)/5(1)</t>
+    <r>
+      <t xml:space="preserve">8-9(3)/5(1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">▲</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val=""/>
+        <charset val="1"/>
+        <family val="1"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>Y159</t>
@@ -4531,7 +4569,7 @@
     <numFmt formatCode="###0.00;###0.00" numFmtId="167"/>
     <numFmt formatCode="###0.000;###0.000" numFmtId="168"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
@@ -4584,6 +4622,17 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val=""/>
+      <charset val="1"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="MS Gothic"/>
+      <family val="3"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -4674,7 +4723,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4799,7 +4848,15 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4998,8 +5055,8 @@
   </sheetPr>
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A15" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C24" activeCellId="0" pane="topLeft" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5713,7 +5770,7 @@
       <c r="B24" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -5734,7 +5791,7 @@
       <c r="I24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="31" t="n">
+      <c r="J24" s="32" t="n">
         <v>2.25</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -5853,7 +5910,7 @@
       <c r="B28" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="33" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -5874,7 +5931,7 @@
       <c r="I28" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="32" t="n">
+      <c r="J28" s="34" t="n">
         <v>2.25</v>
       </c>
       <c r="K28" s="19" t="s">
@@ -5909,7 +5966,7 @@
       <c r="I29" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="32" t="n">
+      <c r="J29" s="34" t="n">
         <v>2.25</v>
       </c>
       <c r="K29" s="19" t="s">
@@ -6022,34 +6079,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="33">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="35" t="n">
+      <c r="E33" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="36" t="n">
+      <c r="J33" s="38" t="n">
         <v>2</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -6063,7 +6120,7 @@
       <c r="B34" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="39" t="s">
         <v>169</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -6098,7 +6155,7 @@
       <c r="B35" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="40" t="s">
         <v>174</v>
       </c>
       <c r="D35" s="19" t="s">
@@ -6154,7 +6211,7 @@
       <c r="I36" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J36" s="39" t="n">
+      <c r="J36" s="41" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -6224,7 +6281,7 @@
       <c r="I38" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J38" s="31" t="n">
+      <c r="J38" s="32" t="n">
         <v>2.25</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -6238,7 +6295,7 @@
       <c r="B39" s="26" t="n">
         <v>116</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="39" t="s">
         <v>194</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -6259,7 +6316,7 @@
       <c r="I39" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="32" t="n">
+      <c r="J39" s="34" t="n">
         <v>2.25</v>
       </c>
       <c r="K39" s="19" t="s">
@@ -6364,7 +6421,7 @@
       <c r="I42" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J42" s="40" t="n">
+      <c r="J42" s="42" t="n">
         <v>3.25</v>
       </c>
       <c r="K42" s="11" t="s">
@@ -6498,7 +6555,7 @@
       <c r="B47" s="26" t="n">
         <v>93</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="40" t="s">
         <v>234</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -6519,7 +6576,7 @@
       <c r="I47" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="J47" s="32" t="n">
+      <c r="J47" s="34" t="n">
         <v>1.75</v>
       </c>
       <c r="K47" s="19" t="s">
@@ -6568,7 +6625,7 @@
       <c r="B49" s="26" t="n">
         <v>96</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -6603,7 +6660,7 @@
       <c r="B50" s="26" t="n">
         <v>101</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="40" t="s">
         <v>244</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -6624,7 +6681,7 @@
       <c r="I50" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="J50" s="32" t="n">
+      <c r="J50" s="34" t="n">
         <v>1.5</v>
       </c>
       <c r="K50" s="21" t="s">
@@ -6659,7 +6716,7 @@
       <c r="I51" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J51" s="31" t="n">
+      <c r="J51" s="32" t="n">
         <v>1.75</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -6694,7 +6751,7 @@
       <c r="I52" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J52" s="31" t="n">
+      <c r="J52" s="32" t="n">
         <v>1.5</v>
       </c>
       <c r="K52" s="11" t="s">
@@ -6708,7 +6765,7 @@
       <c r="B53" s="16" t="n">
         <v>97</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="43" t="s">
         <v>259</v>
       </c>
       <c r="D53" s="15" t="s">
@@ -6740,31 +6797,31 @@
       <c r="A54" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="44" t="n">
+      <c r="E54" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="44" t="s">
         <v>219</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="42" t="s">
+      <c r="I54" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="J54" s="45" t="n">
+      <c r="J54" s="47" t="n">
         <v>1.5</v>
       </c>
       <c r="K54" s="19" t="s">
@@ -6772,72 +6829,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="55">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="46" t="n">
+      <c r="B55" s="48" t="n">
         <v>100</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="44" t="n">
+      <c r="E55" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="44" t="s">
         <v>219</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="I55" s="42" t="s">
+      <c r="I55" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="J55" s="45" t="n">
+      <c r="J55" s="47" t="n">
         <v>1.5</v>
       </c>
-      <c r="K55" s="42" t="s">
+      <c r="K55" s="44" t="s">
         <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="56">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="46" t="n">
+      <c r="B56" s="48" t="n">
         <v>102</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="44" t="n">
+      <c r="E56" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="44" t="s">
         <v>219</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="I56" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="J56" s="47" t="n">
+      <c r="J56" s="49" t="n">
         <v>1.5</v>
       </c>
-      <c r="K56" s="42" t="s">
+      <c r="K56" s="44" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6848,7 +6905,7 @@
       <c r="B57" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="50" t="s">
         <v>279</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -6883,7 +6940,7 @@
       <c r="B58" s="16" t="n">
         <v>99</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="51" t="s">
         <v>284</v>
       </c>
       <c r="D58" s="15" t="s">
@@ -6904,7 +6961,7 @@
       <c r="I58" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J58" s="50" t="n">
+      <c r="J58" s="52" t="n">
         <v>1.5</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -6918,7 +6975,7 @@
       <c r="B59" s="26" t="n">
         <v>98</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="40" t="s">
         <v>289</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -6947,19 +7004,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="60">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
@@ -7024,7 +7081,7 @@
       <c r="I62" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J62" s="31" t="n">
+      <c r="J62" s="32" t="n">
         <v>1.75</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -7059,7 +7116,7 @@
       <c r="I63" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J63" s="31" t="n">
+      <c r="J63" s="32" t="n">
         <v>1.75</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -7094,7 +7151,7 @@
       <c r="I64" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="J64" s="31" t="n">
+      <c r="J64" s="32" t="n">
         <v>1.75</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -7108,7 +7165,7 @@
       <c r="B65" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="39" t="s">
         <v>316</v>
       </c>
       <c r="D65" s="19" t="s">
@@ -7129,7 +7186,7 @@
       <c r="I65" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="32" t="n">
+      <c r="J65" s="34" t="n">
         <v>1.75</v>
       </c>
       <c r="K65" s="19" t="s">
@@ -7164,7 +7221,7 @@
       <c r="I66" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="J66" s="52" t="n">
+      <c r="J66" s="54" t="n">
         <v>1.75</v>
       </c>
       <c r="K66" s="21" t="s">
@@ -7178,7 +7235,7 @@
       <c r="B67" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="39" t="s">
         <v>325</v>
       </c>
       <c r="D67" s="21" t="s">
@@ -7199,7 +7256,7 @@
       <c r="I67" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J67" s="52" t="n">
+      <c r="J67" s="54" t="n">
         <v>1.75</v>
       </c>
       <c r="K67" s="21" t="s">
@@ -7234,7 +7291,7 @@
       <c r="I68" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="J68" s="31" t="n">
+      <c r="J68" s="32" t="n">
         <v>1.75</v>
       </c>
       <c r="K68" s="4" t="s">
@@ -7269,7 +7326,7 @@
       <c r="I69" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J69" s="40" t="n">
+      <c r="J69" s="42" t="n">
         <v>1.75</v>
       </c>
       <c r="K69" s="11" t="s">
@@ -7319,7 +7376,7 @@
       <c r="I71" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="J71" s="40" t="n">
+      <c r="J71" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K71" s="11" t="s">
@@ -7333,7 +7390,7 @@
       <c r="B72" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="50" t="s">
         <v>348</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -7354,7 +7411,7 @@
       <c r="I72" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="J72" s="40" t="n">
+      <c r="J72" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K72" s="11" t="s">
@@ -7389,7 +7446,7 @@
       <c r="I73" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J73" s="31" t="n">
+      <c r="J73" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -7403,7 +7460,7 @@
       <c r="B74" s="26" t="n">
         <v>36</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="39" t="s">
         <v>358</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -7424,7 +7481,7 @@
       <c r="I74" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J74" s="32" t="n">
+      <c r="J74" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="K74" s="19" t="s">
@@ -7459,7 +7516,7 @@
       <c r="I75" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="J75" s="32" t="n">
+      <c r="J75" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="K75" s="19" t="s">
@@ -7494,7 +7551,7 @@
       <c r="I76" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="J76" s="32" t="n">
+      <c r="J76" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="K76" s="19" t="s">
@@ -7564,7 +7621,7 @@
       <c r="I78" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J78" s="31" t="n">
+      <c r="J78" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K78" s="4" t="s">
@@ -7578,7 +7635,7 @@
       <c r="B79" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="55" t="s">
         <v>381</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -7599,7 +7656,7 @@
       <c r="I79" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="J79" s="40" t="n">
+      <c r="J79" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K79" s="11" t="s">
@@ -7698,7 +7755,7 @@
       <c r="I82" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="J82" s="32" t="n">
+      <c r="J82" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="K82" s="19" t="s">
@@ -7712,7 +7769,7 @@
       <c r="B83" s="16" t="n">
         <v>89</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="51" t="s">
         <v>395</v>
       </c>
       <c r="D83" s="15" t="s">
@@ -7733,7 +7790,7 @@
       <c r="I83" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="J83" s="50" t="n">
+      <c r="J83" s="52" t="n">
         <v>1.25</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -7768,7 +7825,7 @@
       <c r="I84" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J84" s="40" t="n">
+      <c r="J84" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K84" s="11" t="s">
@@ -7776,19 +7833,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="85">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
@@ -7853,7 +7910,7 @@
       <c r="I87" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J87" s="54" t="n">
+      <c r="J87" s="56" t="n">
         <v>2</v>
       </c>
       <c r="K87" s="9" t="s">
@@ -7888,7 +7945,7 @@
       <c r="I88" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J88" s="54" t="n">
+      <c r="J88" s="56" t="n">
         <v>3.5</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -7938,7 +7995,7 @@
       <c r="I90" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="J90" s="50" t="n">
+      <c r="J90" s="52" t="n">
         <v>1.25</v>
       </c>
       <c r="K90" s="4" t="s">
@@ -7973,7 +8030,7 @@
       <c r="I91" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J91" s="40" t="n">
+      <c r="J91" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K91" s="11" t="s">
@@ -8008,7 +8065,7 @@
       <c r="I92" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J92" s="40" t="n">
+      <c r="J92" s="42" t="n">
         <v>1.25</v>
       </c>
       <c r="K92" s="11" t="s">
@@ -8142,7 +8199,7 @@
       <c r="B97" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="57" t="s">
         <v>449</v>
       </c>
       <c r="D97" s="21" t="s">
@@ -8177,7 +8234,7 @@
       <c r="B98" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="40" t="s">
         <v>455</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -8212,7 +8269,7 @@
       <c r="B99" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="40" t="s">
         <v>462</v>
       </c>
       <c r="D99" s="19" t="s">
@@ -8352,7 +8409,7 @@
       <c r="B103" s="26" t="n">
         <v>71</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="39" t="s">
         <v>443</v>
       </c>
       <c r="D103" s="19" t="s">
@@ -8422,7 +8479,7 @@
       <c r="B105" s="26" t="n">
         <v>72</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="40" t="s">
         <v>487</v>
       </c>
       <c r="D105" s="19" t="s">
@@ -8478,7 +8535,7 @@
       <c r="I106" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="J106" s="40" t="n">
+      <c r="J106" s="42" t="n">
         <v>2.25</v>
       </c>
       <c r="K106" s="11" t="s">
@@ -8492,7 +8549,7 @@
       <c r="B107" s="16" t="n">
         <v>206</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="51" t="s">
         <v>497</v>
       </c>
       <c r="D107" s="15" t="s">
@@ -8513,7 +8570,7 @@
       <c r="I107" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="J107" s="50" t="n">
+      <c r="J107" s="52" t="n">
         <v>2.25</v>
       </c>
       <c r="K107" s="15" t="s">
@@ -8562,7 +8619,7 @@
       <c r="B109" s="14" t="n">
         <v>205</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="50" t="s">
         <v>502</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -8583,7 +8640,7 @@
       <c r="I109" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="J109" s="40" t="n">
+      <c r="J109" s="42" t="n">
         <v>2.25</v>
       </c>
       <c r="K109" s="11" t="s">
@@ -8711,72 +8768,72 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="114">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="B114" s="46" t="n">
+      <c r="B114" s="48" t="n">
         <v>78</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="44" t="n">
+      <c r="E114" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="F114" s="42" t="s">
+      <c r="F114" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G114" s="42" t="s">
+      <c r="G114" s="44" t="s">
         <v>508</v>
       </c>
       <c r="H114" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="I114" s="42" t="s">
+      <c r="I114" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="J114" s="45" t="n">
+      <c r="J114" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="K114" s="42" t="s">
+      <c r="K114" s="44" t="s">
         <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="115">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="B115" s="46" t="n">
+      <c r="B115" s="48" t="n">
         <v>76</v>
       </c>
-      <c r="C115" s="42" t="s">
+      <c r="C115" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="D115" s="42" t="s">
+      <c r="D115" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E115" s="44" t="n">
+      <c r="E115" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="F115" s="42" t="s">
+      <c r="F115" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G115" s="42" t="s">
+      <c r="G115" s="44" t="s">
         <v>508</v>
       </c>
       <c r="H115" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="I115" s="42" t="s">
+      <c r="I115" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="J115" s="45" t="n">
+      <c r="J115" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="K115" s="42" t="s">
+      <c r="K115" s="44" t="s">
         <v>530</v>
       </c>
     </row>
@@ -8787,7 +8844,7 @@
       <c r="B116" s="16" t="n">
         <v>79</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="51" t="s">
         <v>532</v>
       </c>
       <c r="D116" s="15" t="s">
@@ -8872,7 +8929,7 @@
       <c r="B119" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="50" t="s">
         <v>543</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -8893,7 +8950,7 @@
       <c r="I119" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="J119" s="56" t="n">
+      <c r="J119" s="58" t="n">
         <v>0.625</v>
       </c>
       <c r="K119" s="11" t="s">
@@ -8928,7 +8985,7 @@
       <c r="I120" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="J120" s="56" t="n">
+      <c r="J120" s="58" t="n">
         <v>0.625</v>
       </c>
       <c r="K120" s="11" t="s">
@@ -8963,7 +9020,7 @@
       <c r="I121" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="J121" s="56" t="n">
+      <c r="J121" s="58" t="n">
         <v>0.625</v>
       </c>
       <c r="K121" s="11" t="s">
@@ -8998,7 +9055,7 @@
       <c r="I122" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="J122" s="57" t="n">
+      <c r="J122" s="59" t="n">
         <v>0.625</v>
       </c>
       <c r="K122" s="19" t="s">
@@ -9012,7 +9069,7 @@
       <c r="B123" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="C123" s="55" t="s">
+      <c r="C123" s="57" t="s">
         <v>563</v>
       </c>
       <c r="D123" s="21" t="s">
@@ -9033,7 +9090,7 @@
       <c r="I123" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="J123" s="58" t="n">
+      <c r="J123" s="60" t="n">
         <v>0.875</v>
       </c>
       <c r="K123" s="21" t="s">
@@ -9047,7 +9104,7 @@
       <c r="B124" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="C124" s="55" t="s">
+      <c r="C124" s="57" t="s">
         <v>566</v>
       </c>
       <c r="D124" s="21" t="s">
@@ -9068,7 +9125,7 @@
       <c r="I124" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="J124" s="58" t="n">
+      <c r="J124" s="60" t="n">
         <v>0.625</v>
       </c>
       <c r="K124" s="21" t="s">
@@ -9082,7 +9139,7 @@
       <c r="B125" s="23" t="n">
         <v>69</v>
       </c>
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="39" t="s">
         <v>570</v>
       </c>
       <c r="D125" s="21" t="s">
@@ -9103,7 +9160,7 @@
       <c r="I125" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="J125" s="58" t="n">
+      <c r="J125" s="60" t="n">
         <v>0.625</v>
       </c>
       <c r="K125" s="21" t="s">
@@ -9138,7 +9195,7 @@
       <c r="I126" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="J126" s="56" t="n">
+      <c r="J126" s="58" t="n">
         <v>0.625</v>
       </c>
       <c r="K126" s="11" t="s">
@@ -9173,7 +9230,7 @@
       <c r="I127" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="J127" s="56" t="n">
+      <c r="J127" s="58" t="n">
         <v>0.625</v>
       </c>
       <c r="K127" s="11" t="s">
@@ -9475,27 +9532,27 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="138">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="B138" s="59" t="n">
+      <c r="B138" s="61" t="n">
         <v>112</v>
       </c>
       <c r="C138" s="10"/>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="E138" s="35" t="n">
+      <c r="E138" s="37" t="n">
         <v>8</v>
       </c>
       <c r="F138" s="10"/>
-      <c r="G138" s="33" t="s">
+      <c r="G138" s="35" t="s">
         <v>608</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="I138" s="33" t="s">
+      <c r="I138" s="35" t="s">
         <v>615</v>
       </c>
       <c r="J138" s="10"/>
@@ -9627,7 +9684,7 @@
       <c r="A143" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C143" s="21" t="s">
@@ -9805,7 +9862,7 @@
       <c r="B148" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="39" t="s">
         <v>658</v>
       </c>
       <c r="D148" s="19" t="s">
@@ -9925,7 +9982,7 @@
       <c r="B152" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="11" t="s">
@@ -10066,7 +10123,7 @@
       <c r="I156" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="J156" s="31" t="n">
+      <c r="J156" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K156" s="4" t="s">
@@ -10302,7 +10359,7 @@
       <c r="B165" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="C165" s="37" t="s">
+      <c r="C165" s="39" t="s">
         <v>713</v>
       </c>
       <c r="D165" s="21" t="s">
@@ -10442,7 +10499,7 @@
       <c r="B169" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="51" t="s">
         <v>734</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -10927,7 +10984,7 @@
       <c r="B184" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="C184" s="53" t="s">
+      <c r="C184" s="55" t="s">
         <v>800</v>
       </c>
       <c r="D184" s="4" t="s">
@@ -11272,7 +11329,7 @@
       <c r="B195" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C195" s="49" t="s">
+      <c r="C195" s="51" t="s">
         <v>842</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -11307,7 +11364,7 @@
       <c r="B196" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="C196" s="53" t="s">
+      <c r="C196" s="55" t="s">
         <v>634</v>
       </c>
       <c r="D196" s="11" t="s">
@@ -11342,7 +11399,7 @@
       <c r="B197" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="C197" s="53" t="s">
+      <c r="C197" s="55" t="s">
         <v>850</v>
       </c>
       <c r="D197" s="11" t="s">
@@ -11377,7 +11434,7 @@
       <c r="B198" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C198" s="53" t="s">
+      <c r="C198" s="55" t="s">
         <v>854</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -11398,7 +11455,7 @@
       <c r="I198" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="J198" s="31" t="n">
+      <c r="J198" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K198" s="11" t="s">
@@ -11412,7 +11469,7 @@
       <c r="B199" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C199" s="55" t="s">
+      <c r="C199" s="57" t="s">
         <v>860</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -11517,7 +11574,7 @@
       <c r="B202" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="C202" s="48" t="s">
+      <c r="C202" s="50" t="s">
         <v>873</v>
       </c>
       <c r="D202" s="11" t="s">
@@ -11552,7 +11609,7 @@
       <c r="B203" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="C203" s="37" t="s">
+      <c r="C203" s="39" t="s">
         <v>878</v>
       </c>
       <c r="D203" s="19" t="s">
@@ -11587,7 +11644,7 @@
       <c r="B204" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C204" s="40" t="s">
         <v>882</v>
       </c>
       <c r="D204" s="19" t="s">
@@ -11622,7 +11679,7 @@
       <c r="B205" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="C205" s="53" t="s">
+      <c r="C205" s="55" t="s">
         <v>888</v>
       </c>
       <c r="D205" s="4" t="s">
@@ -11876,19 +11933,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="213">
-      <c r="A213" s="51" t="s">
+      <c r="A213" s="53" t="s">
         <v>915</v>
       </c>
-      <c r="B213" s="51"/>
-      <c r="C213" s="51"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="51"/>
-      <c r="F213" s="51"/>
-      <c r="G213" s="51"/>
-      <c r="H213" s="51"/>
-      <c r="I213" s="51"/>
-      <c r="J213" s="51"/>
-      <c r="K213" s="51"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="53"/>
+      <c r="I213" s="53"/>
+      <c r="J213" s="53"/>
+      <c r="K213" s="53"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="214">
       <c r="A214" s="1" t="s">
@@ -12002,7 +12059,7 @@
       <c r="B217" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C217" s="55" t="s">
+      <c r="C217" s="57" t="s">
         <v>923</v>
       </c>
       <c r="D217" s="19" t="s">
@@ -12136,19 +12193,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="221">
-      <c r="A221" s="60" t="s">
+      <c r="A221" s="62" t="s">
         <v>942</v>
       </c>
-      <c r="B221" s="60"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="60"/>
+      <c r="B221" s="62"/>
+      <c r="C221" s="62"/>
+      <c r="D221" s="62"/>
+      <c r="E221" s="62"/>
+      <c r="F221" s="62"/>
+      <c r="G221" s="62"/>
+      <c r="H221" s="62"/>
+      <c r="I221" s="62"/>
+      <c r="J221" s="62"/>
+      <c r="K221" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="26">
